--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_321__Reeval_Sobol_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_321__Reeval_Sobol_Modell_1.2.xlsx
@@ -6124,13 +6124,13 @@
                   <c:v>93.74544525146484</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.86728286743164</c:v>
+                  <c:v>25.86726570129395</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7245297431945801</c:v>
+                  <c:v>0.7245356440544128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91.73398590087891</c:v>
+                  <c:v>91.73397827148438</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>88.31827545166016</c:v>
@@ -6139,13 +6139,13 @@
                   <c:v>94.91815185546875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.786278247833252</c:v>
+                  <c:v>3.786289930343628</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>9.149469375610352</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52.89388275146484</c:v>
+                  <c:v>52.89387130737305</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>9.162624359130859</c:v>
@@ -6154,22 +6154,22 @@
                   <c:v>90.16358947753906</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>46.19567489624023</c:v>
+                  <c:v>46.19570922851562</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>94.93849945068359</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.320985794067383</c:v>
+                  <c:v>2.320997476577759</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36.69096755981445</c:v>
+                  <c:v>36.69095993041992</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2.610251903533936</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>94.79397583007812</c:v>
+                  <c:v>94.79398345947266</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>57.64789199829102</c:v>
@@ -6181,34 +6181,34 @@
                   <c:v>91.70175170898438</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>94.93836975097656</c:v>
+                  <c:v>94.93836212158203</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>91.73146820068359</c:v>
+                  <c:v>91.73147583007812</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>91.74765777587891</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.049175262451172</c:v>
+                  <c:v>2.049187183380127</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>90.87815856933594</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>71.3197021484375</c:v>
+                  <c:v>71.31972503662109</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>92.48729705810547</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.384641885757446</c:v>
+                  <c:v>2.384618520736694</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.939842104911804</c:v>
+                  <c:v>1.939818620681763</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>58.76744079589844</c:v>
+                  <c:v>58.76745223999023</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1.789899826049805</c:v>
@@ -6220,19 +6220,19 @@
                   <c:v>2.045700550079346</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.027480363845825</c:v>
+                  <c:v>2.027492046356201</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>94.84896850585938</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>26.89743423461914</c:v>
+                  <c:v>26.89741706848145</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2.043431282043457</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>23.28229141235352</c:v>
+                  <c:v>23.28230285644531</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>94.725830078125</c:v>
@@ -6244,13 +6244,13 @@
                   <c:v>86.19929504394531</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.216432332992554</c:v>
+                  <c:v>2.216420650482178</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>19.92724990844727</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-1.9210045337677</c:v>
+                  <c:v>-1.920998692512512</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>2.042849063873291</c:v>
@@ -6274,25 +6274,25 @@
                   <c:v>88.2626953125</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>91.51912689208984</c:v>
+                  <c:v>91.51913452148438</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.706506490707397</c:v>
+                  <c:v>1.706494808197021</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>34.29368209838867</c:v>
+                  <c:v>34.29365921020508</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>61.84850311279297</c:v>
+                  <c:v>61.84850692749023</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>84.77143096923828</c:v>
+                  <c:v>84.77142333984375</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.672309160232544</c:v>
+                  <c:v>2.67232084274292</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>63.65301132202148</c:v>
+                  <c:v>63.65302276611328</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>88.00865936279297</c:v>
@@ -6301,19 +6301,19 @@
                   <c:v>2.075156450271606</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.458346128463745</c:v>
+                  <c:v>2.458322525024414</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>94.66056823730469</c:v>
+                  <c:v>94.66056060791016</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5.161686420440674</c:v>
+                  <c:v>5.161710262298584</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>91.7625732421875</c:v>
+                  <c:v>91.76258087158203</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.275590896606445</c:v>
+                  <c:v>2.275602579116821</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>1.914690017700195</c:v>
@@ -6322,13 +6322,13 @@
                   <c:v>0.7739108204841614</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>77.92410278320312</c:v>
+                  <c:v>77.92412567138672</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>84.83763122558594</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>94.909423828125</c:v>
+                  <c:v>94.90940856933594</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>96.56729888916016</c:v>
@@ -6337,7 +6337,7 @@
                   <c:v>93.66493225097656</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>52.38149261474609</c:v>
+                  <c:v>52.3814582824707</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>91.24169158935547</c:v>
@@ -6349,7 +6349,7 @@
                   <c:v>94.93654632568359</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>91.90748596191406</c:v>
+                  <c:v>91.90749359130859</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>91.70661926269531</c:v>
@@ -6358,7 +6358,7 @@
                   <c:v>94.93821716308594</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>38.36163711547852</c:v>
+                  <c:v>38.36161422729492</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>2.047258615493774</c:v>
@@ -6367,7 +6367,7 @@
                   <c:v>2.239556074142456</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>89.42308807373047</c:v>
+                  <c:v>89.423095703125</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>94.65652465820312</c:v>
@@ -6376,31 +6376,31 @@
                   <c:v>92.40006256103516</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.060434341430664</c:v>
+                  <c:v>2.060446262359619</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>-0.07696129381656647</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.622475385665894</c:v>
+                  <c:v>2.622463464736938</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>91.10611724853516</c:v>
+                  <c:v>91.10612487792969</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>92.90287780761719</c:v>
+                  <c:v>92.90288543701172</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>2.49403977394104</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>25.69841384887695</c:v>
+                  <c:v>25.69842720031738</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>91.74270629882812</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>29.36930084228516</c:v>
+                  <c:v>29.36931228637695</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>-0.1116614937782288</c:v>
@@ -6412,13 +6412,13 @@
                   <c:v>94.93865203857422</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.76233434677124</c:v>
+                  <c:v>2.762322664260864</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>91.91954040527344</c:v>
+                  <c:v>91.91953277587891</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2.050033807754517</c:v>
+                  <c:v>2.050045490264893</c:v>
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>8.366936683654785</c:v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>25.86728286743164</v>
+        <v>25.86726570129395</v>
       </c>
       <c r="G4">
         <v>119</v>
@@ -7215,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7245297431945801</v>
+        <v>0.7245356440544128</v>
       </c>
       <c r="G5">
         <v>119</v>
@@ -7247,7 +7247,7 @@
         <v>94.71559999999999</v>
       </c>
       <c r="F6">
-        <v>91.73398590087891</v>
+        <v>91.73397827148438</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.786278247833252</v>
+        <v>3.786289930343628</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7371,7 +7371,7 @@
         <v>53.3608</v>
       </c>
       <c r="F11">
-        <v>52.89388275146484</v>
+        <v>52.89387130737305</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>46.19567489624023</v>
+        <v>46.19570922851562</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7471,7 +7471,7 @@
         <v>43.5746</v>
       </c>
       <c r="F16">
-        <v>2.320985794067383</v>
+        <v>2.320997476577759</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>26.9346</v>
       </c>
       <c r="F17">
-        <v>36.69096755981445</v>
+        <v>36.69095993041992</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>95.9807</v>
       </c>
       <c r="F19">
-        <v>94.79397583007812</v>
+        <v>94.79398345947266</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>98.18859999999999</v>
       </c>
       <c r="F23">
-        <v>94.93836975097656</v>
+        <v>94.93836212158203</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>93.3062</v>
       </c>
       <c r="F24">
-        <v>91.73146820068359</v>
+        <v>91.73147583007812</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>2.049175262451172</v>
+        <v>2.049187183380127</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>93.2831</v>
       </c>
       <c r="F28">
-        <v>71.3197021484375</v>
+        <v>71.31972503662109</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>2.384641885757446</v>
+        <v>2.384618520736694</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.939842104911804</v>
+        <v>1.939818620681763</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>35.561</v>
       </c>
       <c r="F32">
-        <v>58.76744079589844</v>
+        <v>58.76745223999023</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>2.027480363845825</v>
+        <v>2.027492046356201</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>26.89743423461914</v>
+        <v>26.89741706848145</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>23.28229141235352</v>
+        <v>23.28230285644531</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>2.216432332992554</v>
+        <v>2.216420650482178</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>-1.9210045337677</v>
+        <v>-1.920998692512512</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>97.72280000000001</v>
       </c>
       <c r="F54">
-        <v>91.51912689208984</v>
+        <v>91.51913452148438</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.706506490707397</v>
+        <v>1.706494808197021</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>42.5481</v>
       </c>
       <c r="F56">
-        <v>34.29368209838867</v>
+        <v>34.29365921020508</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>39.8962</v>
       </c>
       <c r="F57">
-        <v>61.84850311279297</v>
+        <v>61.84850692749023</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>89.467</v>
       </c>
       <c r="F58">
-        <v>84.77143096923828</v>
+        <v>84.77142333984375</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>2.672309160232544</v>
+        <v>2.67232084274292</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>34.2752</v>
       </c>
       <c r="F60">
-        <v>63.65301132202148</v>
+        <v>63.65302276611328</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>2.458346128463745</v>
+        <v>2.458322525024414</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>97.37220000000001</v>
       </c>
       <c r="F64">
-        <v>94.66056823730469</v>
+        <v>94.66056060791016</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>31.0072</v>
       </c>
       <c r="F65">
-        <v>5.161686420440674</v>
+        <v>5.161710262298584</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>93.4378</v>
       </c>
       <c r="F66">
-        <v>91.7625732421875</v>
+        <v>91.76258087158203</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>2.275590896606445</v>
+        <v>2.275602579116821</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>57.4947</v>
       </c>
       <c r="F70">
-        <v>77.92410278320312</v>
+        <v>77.92412567138672</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>98.4423</v>
       </c>
       <c r="F72">
-        <v>94.909423828125</v>
+        <v>94.90940856933594</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>52.38149261474609</v>
+        <v>52.3814582824707</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>94.49079999999999</v>
       </c>
       <c r="F79">
-        <v>91.90748596191406</v>
+        <v>91.90749359130859</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>59.3491</v>
       </c>
       <c r="F82">
-        <v>38.36163711547852</v>
+        <v>38.36161422729492</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>80.0817</v>
       </c>
       <c r="F85">
-        <v>89.42308807373047</v>
+        <v>89.423095703125</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>2.060434341430664</v>
+        <v>2.060446262359619</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>2.622475385665894</v>
+        <v>2.622463464736938</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>91.271</v>
       </c>
       <c r="F91">
-        <v>91.10611724853516</v>
+        <v>91.10612487792969</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>95.6799</v>
       </c>
       <c r="F92">
-        <v>92.90287780761719</v>
+        <v>92.90288543701172</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>25.69841384887695</v>
+        <v>25.69842720031738</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -9071,7 +9071,7 @@
         <v>77.41670000000001</v>
       </c>
       <c r="F96">
-        <v>29.36930084228516</v>
+        <v>29.36931228637695</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>2.76233434677124</v>
+        <v>2.762322664260864</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9171,7 +9171,7 @@
         <v>97.31619999999999</v>
       </c>
       <c r="F101">
-        <v>91.91954040527344</v>
+        <v>91.91953277587891</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -9191,7 +9191,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>2.050033807754517</v>
+        <v>2.050045490264893</v>
       </c>
     </row>
     <row r="103" spans="1:6">
